--- a/temas/data/desempleo.xlsx
+++ b/temas/data/desempleo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>DOMINIO</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Bogotá D.C.</t>
-  </si>
-  <si>
-    <t>Total Nacional</t>
   </si>
   <si>
     <t>Cauca</t>
@@ -434,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,16 +702,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>63.3</v>
+        <v>59.1</v>
       </c>
       <c r="C16">
-        <v>56.6</v>
+        <v>53.1</v>
       </c>
       <c r="D16">
-        <v>10.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E16">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,16 +719,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>59.1</v>
+        <v>67.3</v>
       </c>
       <c r="C17">
-        <v>53.1</v>
+        <v>60.9</v>
       </c>
       <c r="D17">
-        <v>10.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="E17">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,16 +736,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>67.3</v>
+        <v>56.3</v>
       </c>
       <c r="C18">
-        <v>60.9</v>
+        <v>51.2</v>
       </c>
       <c r="D18">
-        <v>9.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E18">
-        <v>7.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,16 +753,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>56.3</v>
+        <v>55.8</v>
       </c>
       <c r="C19">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>9.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,16 +770,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>55.8</v>
+        <v>62.8</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>57.7</v>
       </c>
       <c r="D20">
-        <v>8.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E20">
-        <v>7.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,16 +787,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>62.8</v>
+        <v>61.8</v>
       </c>
       <c r="C21">
-        <v>57.7</v>
+        <v>57.1</v>
       </c>
       <c r="D21">
-        <v>8.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="E21">
-        <v>9.1999999999999993</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,16 +804,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>61.8</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>57.1</v>
+        <v>58.5</v>
       </c>
       <c r="D22">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="E22">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,16 +821,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C23">
-        <v>58.5</v>
+        <v>62.3</v>
       </c>
       <c r="D23">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="E23">
-        <v>7.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,16 +838,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>66.599999999999994</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>62.3</v>
+        <v>61.8</v>
       </c>
       <c r="D24">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E24">
-        <v>4.5999999999999996</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,32 +855,15 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <v>61.8</v>
+        <v>56.1</v>
       </c>
       <c r="D25">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>59</v>
-      </c>
-      <c r="C26">
-        <v>56.1</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
         <v>5.8</v>
       </c>
     </row>
